--- a/resources/atoz-test-data.xlsx
+++ b/resources/atoz-test-data.xlsx
@@ -4,12 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="26221"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22400" windowHeight="12380" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22400" windowHeight="12380"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
     <sheet name="assign" sheetId="4" r:id="rId2"/>
-    <sheet name="recordings" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -24,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
   <si>
     <t>USERNAME</t>
   </si>
@@ -32,28 +31,16 @@
     <t>PASSWORD</t>
   </si>
   <si>
-    <t>2015-09</t>
-  </si>
-  <si>
-    <t>QA_2015-10-02_Reena_SQL Class(Sets,DML)</t>
-  </si>
-  <si>
-    <t>BATCH</t>
-  </si>
-  <si>
-    <t>RECORDING</t>
+    <t>ASSIGN-TYPE</t>
+  </si>
+  <si>
+    <t>Questions</t>
   </si>
   <si>
     <t>manjula.acharya@gmail.com</t>
   </si>
   <si>
     <t>secret7</t>
-  </si>
-  <si>
-    <t>ASSIGN-TYPE</t>
-  </si>
-  <si>
-    <t>Questions</t>
   </si>
 </sst>
 </file>
@@ -404,8 +391,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -424,10 +411,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -447,8 +434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -466,18 +453,18 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -492,59 +479,4 @@
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="3" max="3" width="35.5" customWidth="1"/>
-    <col min="4" max="4" width="33.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
 </file>